--- a/Mifos Automation Excels/Client/2688-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-RunPERon1stAPR-LESSREPAYon1stFEB-AccCL1stFEB-RUNPERon2ndFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2688-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-RunPERon1stAPR-LESSREPAYon1stFEB-AccCL1stFEB-RUNPERon2ndFEB-Newcreateloan1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Head Office</t>
   </si>
@@ -186,13 +186,7 @@
     <t>Accrual</t>
   </si>
   <si>
-    <t>verifyrepayment</t>
-  </si>
-  <si>
     <t>Repayment</t>
-  </si>
-  <si>
-    <t>Accounting has been closed for this branch as of `2014-02-2`.</t>
   </si>
 </sst>
 </file>
@@ -991,10 +985,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,14 +1012,6 @@
       </c>
       <c r="B2" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1190,7 @@
         <v>41671</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="14">
         <v>500</v>
